--- a/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38A1DF25-E5F1-45AA-965B-F8F0F826AE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5FCFD6-6F8E-40D7-80B7-38E9EABB4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{12E562B9-8B4E-4D98-B0E6-A1B09D844A7C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{90136324-38A8-41ED-85D5-00EA6AF2ADDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>44,76%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>49,38%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>55,24%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>59,74%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -243,120 +357,6 @@
   </si>
   <si>
     <t>53,66%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
   </si>
   <si>
     <t>49,68%</t>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD680164-9B29-4DDE-919A-774458C1DF8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38823976-0FFD-4C63-A892-2564680ACFC8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -920,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>108203</v>
+        <v>5156</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +935,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>83843</v>
+        <v>7999</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +950,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>192046</v>
+        <v>13154</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +971,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>183</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>133523</v>
+        <v>6241</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +986,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>102947</v>
+        <v>8000</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>328</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>236470</v>
+        <v>14241</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1022,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>241726</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1037,10 +1037,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>268</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>186790</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1052,10 +1052,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>590</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>428516</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>83647</v>
+        <v>108203</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1245,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I10" s="7">
-        <v>88028</v>
+        <v>83843</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>229</v>
+        <v>262</v>
       </c>
       <c r="N10" s="7">
-        <v>171675</v>
+        <v>192046</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="D11" s="7">
-        <v>85698</v>
+        <v>133523</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1296,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="I11" s="7">
-        <v>76233</v>
+        <v>102947</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1311,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>230</v>
+        <v>328</v>
       </c>
       <c r="N11" s="7">
-        <v>161931</v>
+        <v>236470</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1332,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>169345</v>
+        <v>241726</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1347,10 +1347,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="I12" s="7">
-        <v>164261</v>
+        <v>186790</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1362,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>459</v>
+        <v>590</v>
       </c>
       <c r="N12" s="7">
-        <v>333606</v>
+        <v>428516</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1385,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>5156</v>
+        <v>98079</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1400,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>7999</v>
+        <v>93981</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1415,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>268</v>
       </c>
       <c r="N13" s="7">
-        <v>13154</v>
+        <v>192061</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1436,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D14" s="7">
-        <v>6241</v>
+        <v>71201</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1451,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="I14" s="7">
-        <v>8000</v>
+        <v>62781</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1466,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="N14" s="7">
-        <v>14241</v>
+        <v>133982</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>169280</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1502,10 +1502,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>156762</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1517,10 +1517,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>326043</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>98079</v>
+        <v>83647</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1555,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>93981</v>
+        <v>88028</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1570,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>192061</v>
+        <v>171675</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1591,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7">
-        <v>71201</v>
+        <v>85698</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1606,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>62781</v>
+        <v>76233</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1621,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="N17" s="7">
-        <v>133982</v>
+        <v>161931</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D18" s="7">
-        <v>169280</v>
+        <v>169345</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1657,10 +1657,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I18" s="7">
-        <v>156762</v>
+        <v>164261</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1672,10 +1672,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="N18" s="7">
-        <v>326043</v>
+        <v>333606</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E5FCFD6-6F8E-40D7-80B7-38E9EABB4A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE64AF7-8279-49B7-8925-D32143405EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{90136324-38A8-41ED-85D5-00EA6AF2ADDA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55C1A828-3E26-4D7A-8C97-43CF7824A168}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
-  <si>
-    <t>Menores según si su única lactáncia duranto los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+  <si>
+    <t>Menores según si su única lactáncia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,106 +128,103 @@
     <t>63,86%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
     <t>48,68%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>46,24%</t>
   </si>
   <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
     <t>44,76%</t>
   </si>
   <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>44,89%</t>
@@ -206,211 +233,187 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>51,1%</t>
+    <t>51,49%</t>
   </si>
   <si>
     <t>44,82%</t>
   </si>
   <si>
-    <t>40,26%</t>
+    <t>40,31%</t>
   </si>
   <si>
     <t>49,38%</t>
   </si>
   <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
   </si>
   <si>
     <t>50,88%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -517,39 +520,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -601,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -712,13 +715,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -727,6 +723,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -791,19 +794,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38823976-0FFD-4C63-A892-2564680ACFC8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180DD285-B4CF-460A-8D5E-F3F315E9B736}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -920,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>5156</v>
+        <v>6241</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -935,10 +958,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>7999</v>
+        <v>8000</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -950,10 +973,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>13154</v>
+        <v>14241</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -971,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>6241</v>
+        <v>5156</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -986,10 +1009,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>8000</v>
+        <v>7999</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1001,10 +1024,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>14241</v>
+        <v>13154</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1075,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D7" s="7">
-        <v>54521</v>
+        <v>57485</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1090,10 +1113,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>43324</v>
+        <v>56289</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1105,10 +1128,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="N7" s="7">
-        <v>97845</v>
+        <v>113774</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1126,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>57485</v>
+        <v>54521</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1141,10 +1164,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="I8" s="7">
-        <v>56289</v>
+        <v>43324</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1156,10 +1179,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="N8" s="7">
-        <v>113774</v>
+        <v>97845</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1230,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="D10" s="7">
-        <v>108203</v>
+        <v>133523</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1245,10 +1268,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="I10" s="7">
-        <v>83843</v>
+        <v>102947</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1260,10 +1283,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="N10" s="7">
-        <v>192046</v>
+        <v>236470</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1281,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D11" s="7">
-        <v>133523</v>
+        <v>108203</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1296,10 +1319,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>102947</v>
+        <v>83843</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1311,10 +1334,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>262</v>
       </c>
       <c r="N11" s="7">
-        <v>236470</v>
+        <v>192046</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1385,10 +1408,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>98079</v>
+        <v>71201</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1400,10 +1423,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7">
-        <v>93981</v>
+        <v>62781</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1415,10 +1438,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="N13" s="7">
-        <v>192061</v>
+        <v>133982</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1436,10 +1459,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D14" s="7">
-        <v>71201</v>
+        <v>98079</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1451,10 +1474,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="I14" s="7">
-        <v>62781</v>
+        <v>93981</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1466,10 +1489,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="N14" s="7">
-        <v>133982</v>
+        <v>192061</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1540,10 +1563,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7">
-        <v>83647</v>
+        <v>85698</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1555,10 +1578,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>88028</v>
+        <v>76233</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1570,10 +1593,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N16" s="7">
-        <v>171675</v>
+        <v>161931</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1591,10 +1614,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D17" s="7">
-        <v>85698</v>
+        <v>83647</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1606,10 +1629,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I17" s="7">
-        <v>76233</v>
+        <v>88028</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1621,10 +1644,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N17" s="7">
-        <v>161931</v>
+        <v>171675</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1695,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="D19" s="7">
-        <v>349607</v>
+        <v>354147</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -1710,10 +1733,10 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="I19" s="7">
-        <v>317174</v>
+        <v>306252</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>110</v>
@@ -1725,10 +1748,10 @@
         <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="N19" s="7">
-        <v>666781</v>
+        <v>660399</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>113</v>
@@ -1746,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D20" s="7">
-        <v>354147</v>
+        <v>349607</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>116</v>
@@ -1761,10 +1784,10 @@
         <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="I20" s="7">
-        <v>306252</v>
+        <v>317174</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>119</v>
@@ -1776,10 +1799,10 @@
         <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="N20" s="7">
-        <v>660399</v>
+        <v>666781</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -1840,6 +1863,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE64AF7-8279-49B7-8925-D32143405EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F4D762-0F63-4C4D-942B-D1AA35A8BDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{55C1A828-3E26-4D7A-8C97-43CF7824A168}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69A48013-8D2B-4483-A43E-CE5994969CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
-  <si>
-    <t>Menores según si su única lactáncia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+  <si>
+    <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>54,76%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>51,98%</t>
   </si>
   <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,202 +104,196 @@
     <t>45,24%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>49,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>48,02%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>56,51%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>53,76%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>43,49%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>46,24%</t>
   </si>
   <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,24%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>55,11%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
   </si>
   <si>
     <t>55,18%</t>
   </si>
   <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
     <t>50,62%</t>
   </si>
   <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>65,96%</t>
   </si>
   <si>
     <t>59,95%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,73 +302,64 @@
     <t>50,61%</t>
   </si>
   <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
   </si>
   <si>
     <t>46,41%</t>
   </si>
   <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
+    <t>39,42%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>60,58%</t>
   </si>
   <si>
     <t>51,46%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>49,76%</t>
@@ -383,31 +368,28 @@
     <t>47,38%</t>
   </si>
   <si>
-    <t>52,6%</t>
+    <t>52,19%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>47,4%</t>
+    <t>47,81%</t>
   </si>
   <si>
     <t>52,62%</t>
@@ -825,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180DD285-B4CF-460A-8D5E-F3F315E9B736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234FEC8-E5B1-4BDB-A513-D33B74F582CE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1155,13 +1137,13 @@
         <v>54521</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>71</v>
@@ -1170,13 +1152,13 @@
         <v>43324</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>138</v>
@@ -1185,13 +1167,13 @@
         <v>97845</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,7 +1229,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1259,13 +1241,13 @@
         <v>133523</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>145</v>
@@ -1274,13 +1256,13 @@
         <v>102947</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -1289,13 +1271,13 @@
         <v>236470</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,13 +1292,13 @@
         <v>108203</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>123</v>
@@ -1325,13 +1307,13 @@
         <v>83843</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>262</v>
@@ -1340,13 +1322,13 @@
         <v>192046</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,7 +1384,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1414,13 +1396,13 @@
         <v>71201</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -1429,13 +1411,13 @@
         <v>62781</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>170</v>
@@ -1444,13 +1426,13 @@
         <v>133982</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,13 +1447,13 @@
         <v>98079</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>133</v>
@@ -1480,13 +1462,13 @@
         <v>93981</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -1495,13 +1477,13 @@
         <v>192061</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,7 +1539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1551,13 @@
         <v>85698</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>110</v>
@@ -1584,13 +1566,13 @@
         <v>76233</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>230</v>
@@ -1599,13 +1581,13 @@
         <v>161931</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1602,13 @@
         <v>83647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>120</v>
@@ -1635,13 +1617,13 @@
         <v>88028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>229</v>
@@ -1650,13 +1632,13 @@
         <v>171675</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1706,13 @@
         <v>354147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>448</v>
@@ -1739,13 +1721,13 @@
         <v>306252</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
         <v>923</v>
@@ -1754,13 +1736,13 @@
         <v>660399</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1757,13 @@
         <v>349607</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>458</v>
@@ -1790,13 +1772,13 @@
         <v>317174</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>915</v>
@@ -1805,13 +1787,13 @@
         <v>666781</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1849,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2905_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F4D762-0F63-4C4D-942B-D1AA35A8BDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FCDC81-AF2C-4255-BE7F-18163B6F431F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69A48013-8D2B-4483-A43E-CE5994969CE0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{43EF8E48-9E95-4900-9DB7-D6A2040AB7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si su única lactancia durante los primeros meses de vida fue leche materna en 2023 (Tasa respuesta: 95,73%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,334 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
     <t>55,24%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>44,76%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>51,14%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>50,32%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>49,68%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -807,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234FEC8-E5B1-4BDB-A513-D33B74F582CE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB649EBA-8340-486F-BD2F-82D782CA9630}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -925,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>6241</v>
+        <v>62751</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -940,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="I4" s="7">
-        <v>8000</v>
+        <v>70151</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -955,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="N4" s="7">
-        <v>14241</v>
+        <v>132903</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -976,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>5156</v>
+        <v>50307</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -991,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>7999</v>
+        <v>66200</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1006,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="N5" s="7">
-        <v>13154</v>
+        <v>116506</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1027,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>113058</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1042,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1057,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>249409</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1080,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D7" s="7">
-        <v>57485</v>
+        <v>104033</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1095,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="I7" s="7">
-        <v>56289</v>
+        <v>136122</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1110,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="N7" s="7">
-        <v>113774</v>
+        <v>240155</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1131,49 +1092,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7">
-        <v>54521</v>
+        <v>80977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>43324</v>
+        <v>110284</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="N8" s="7">
-        <v>97845</v>
+        <v>191261</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="D9" s="7">
-        <v>112006</v>
+        <v>185010</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1197,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>99613</v>
+        <v>246406</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1212,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>308</v>
+        <v>590</v>
       </c>
       <c r="N9" s="7">
-        <v>211619</v>
+        <v>431416</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1229,55 +1190,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>133523</v>
+        <v>66055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>102947</v>
+        <v>80116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>328</v>
+        <v>170</v>
       </c>
       <c r="N10" s="7">
-        <v>236470</v>
+        <v>146171</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1286,49 +1247,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7">
-        <v>108203</v>
+        <v>94058</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I11" s="7">
-        <v>83843</v>
+        <v>101040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N11" s="7">
-        <v>192046</v>
+        <v>195098</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1337,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>241726</v>
+        <v>160113</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1352,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>186790</v>
+        <v>181156</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1367,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>590</v>
+        <v>438</v>
       </c>
       <c r="N12" s="7">
-        <v>428516</v>
+        <v>341269</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1384,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D13" s="7">
-        <v>71201</v>
+        <v>74233</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="I13" s="7">
-        <v>62781</v>
+        <v>89692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="N13" s="7">
-        <v>133982</v>
+        <v>163926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7">
-        <v>98079</v>
+        <v>86151</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="I14" s="7">
-        <v>93981</v>
+        <v>85440</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="N14" s="7">
-        <v>192061</v>
+        <v>171590</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1492,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>169280</v>
+        <v>160384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1507,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>156762</v>
+        <v>175132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1522,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>326043</v>
+        <v>335516</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1539,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>120</v>
+        <v>448</v>
       </c>
       <c r="D16" s="7">
-        <v>85698</v>
+        <v>307072</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>475</v>
       </c>
       <c r="I16" s="7">
-        <v>76233</v>
+        <v>376082</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>230</v>
+        <v>923</v>
       </c>
       <c r="N16" s="7">
-        <v>161931</v>
+        <v>683154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>109</v>
+        <v>458</v>
       </c>
       <c r="D17" s="7">
-        <v>83647</v>
+        <v>311493</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>120</v>
+        <v>457</v>
       </c>
       <c r="I17" s="7">
-        <v>88028</v>
+        <v>362962</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>229</v>
+        <v>915</v>
       </c>
       <c r="N17" s="7">
-        <v>171675</v>
+        <v>674455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>229</v>
+        <v>906</v>
       </c>
       <c r="D18" s="7">
-        <v>169345</v>
+        <v>618565</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1662,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>932</v>
       </c>
       <c r="I18" s="7">
-        <v>164261</v>
+        <v>739044</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>1838</v>
       </c>
       <c r="N18" s="7">
-        <v>333606</v>
+        <v>1357609</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1693,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>475</v>
-      </c>
-      <c r="D19" s="7">
-        <v>354147</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="7">
-        <v>448</v>
-      </c>
-      <c r="I19" s="7">
-        <v>306252</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>923</v>
-      </c>
-      <c r="N19" s="7">
-        <v>660399</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>457</v>
-      </c>
-      <c r="D20" s="7">
-        <v>349607</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>458</v>
-      </c>
-      <c r="I20" s="7">
-        <v>317174</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>915</v>
-      </c>
-      <c r="N20" s="7">
-        <v>666781</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>932</v>
-      </c>
-      <c r="D21" s="7">
-        <v>703754</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>906</v>
-      </c>
-      <c r="I21" s="7">
-        <v>623426</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1838</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1327180</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
